--- a/src/main/java/org/para/testdata/Register_Data.xlsx
+++ b/src/main/java/org/para/testdata/Register_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\css123557\Documents\Flip\Sample_Project\src\main\java\org\para\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\IdeaProjects\Sample_Project\src\main\java\org\para\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC40538C-88B1-4D26-B400-A63378FAECE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACF1BC0-D488-4625-94F3-C0253CA2FD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -70,16 +70,13 @@
     <t>LA</t>
   </si>
   <si>
-    <t>Testing3</t>
-  </si>
-  <si>
-    <t>Testing3_Training</t>
-  </si>
-  <si>
     <t>Test@123456</t>
   </si>
   <si>
-    <t>Test@12346</t>
+    <t>Testing5</t>
+  </si>
+  <si>
+    <t>Testing5_Training</t>
   </si>
 </sst>
 </file>
@@ -410,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +458,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -482,13 +479,13 @@
         <v>327498327</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
